--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_1.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_1.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_1_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2711,4 +2712,6615 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B659"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>联系</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>断开</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>全选</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>至少</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>加为好友</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>入口</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>闪动</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>暗示</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>像框</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>空时</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>添</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>分类</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>第一个</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>优先</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>已选</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>信息安全</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>组织</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>信任度</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>右下方</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>人头像</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>某人</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>频繁</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>渲染</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>通讯录</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>考虑</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>一位</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>头</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>勾选时</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>成员名单</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>跳动</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>耗时</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>关系</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>分组</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>转</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>忙</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>其实</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>头像图片</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>第一步</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>滑动</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>放大镜</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>xw</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>登陆</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>方法</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>牛仔</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>聊过</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>功能设计</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>天</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>停留</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>并不需要</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>未经</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>授权</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>一闪</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>记忆</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>钩</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>不畅</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>较差</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>缓存</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>太多</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>有过</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>分不清</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>逐一</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>循环</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>便利性</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>曾经</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>批量</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>详细资料</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>讨论</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>局限性</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>方框</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>选取</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>闪烁不定</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>令人</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>更换</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>一张</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>一下</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>背景图片</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>上钩</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>中会</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>请求者</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>连贯性</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>发送信息</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>失去</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>尚未</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>单选框</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>混杂</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>疑问</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>打断</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>连续</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>勾选后</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>高度</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>误加</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>数据安全</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>已为</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>拥有</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>一组</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>听觉</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>人员构成</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>一大批</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>更为严重</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>损害</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>负担</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>与非</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>视觉效果</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>管理效率</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>梦归处</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>流年似水</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>仍能</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>可勾选</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>用费</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>三位</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>愿意</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>改名</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>拉黑</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>首位</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>置于</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>软件缺陷</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>zzy</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>最佳</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>基本</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>威胁</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>等待时间</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>硬件</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>快</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>缓慢</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>先闪</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>多位</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>本来</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>一致性</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>跳</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>大多数</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>类别</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>时仅</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>电池电量</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>传输速度</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>信号</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>以外</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>索引</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>误判</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>主页</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>遭遇</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>时均</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>无需</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>键来</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>轻易</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>身份验证</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>相关性</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>滥用</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>保护</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>东大街</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>对称</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>其拉入</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>多种</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>需该</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>要拉进</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>短暂性</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>汉字</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>后群</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>活跃</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>没有响应</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>进来</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>频频</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>厌烦</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>太多人</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>安全隐患</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>拖进</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>财产</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>间</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>重影</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>秒左右</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>只以</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>易</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>是非</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>错</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>交谈</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>泄露</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>照片</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>选</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>框时</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>组员</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>检测</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>搞错</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>真正</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>政策</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>覆盖</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>总是</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>选栏</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>满意</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>极为</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>响应速度</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>刚刚</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>秒</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>刚建</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>建完群</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>唯一</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>这款</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>换日线</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>固定</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>容纳</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>报告</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>但头</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>满</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>易用性</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>并建</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>一名</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>第二个</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>面对面</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>改进</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>逐个</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>若想</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>处于</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>当多人</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>挺久</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>旁</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>勾选框</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>称呼</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>毫无</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>察觉</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>有时候</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>点多</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>一遍</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>认识</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>贴</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>进去</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>注明</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>人才</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>人来</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>被迫</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_1.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,651 +437,1013 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000009356</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>群聊中出现了非好友间的聊天，系统没有给出提示表明对方不是好友，这可能会导致用户在不知情的情况下与陌生人交流，存在财产安全风险。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>群聊 出现 非 好友 间 聊天 系统 没有 给出 提示 表明 好友 不知情 情况 陌生人 交流 财产 安全 风险</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000008803</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>创建群聊的时候，可以把陌生人拖进群，并不需要对方确定，这样会产生安全隐患。如果太多人把对方添加到群，会让人厌烦。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>创建 群聊 陌生人 拖进 群 并不需要 确定 产生 安全隐患 太多人 添加 群 厌烦</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>10010000008421</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>闪退在杰迷吧点击头像添加好友时，频频出现闪退现象</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>闪退 杰迷 点击 头像 添加 好友 频频 出现 闪退 现象</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>10010000007903</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>该软件在用户试图发起群聊时，存在一个bug。具体表现为，当用户没有好友时，他们无法创建新的群聊。这限制了用户的社交功能，可能导致用户对软件的不满和流失。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>试图 发起 群聊 具体表现 没有 好友 无法 创建 新 群聊 限制 社交 软件 不满 流失</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008060</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件在选择用户加入群聊的功能中存在缺陷。目前，用户只能通过最近联系列表或手动搜索来选择成员，但无法直接添加自己的好友到群聊中。这一功能的限制可能导致用户在创建群聊时无法方便地将他们的好友包括进来，从而影响了软件的用户体验和实用性。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>选择 加入 群聊 缺陷 目前 只能 最近 联系 列表 手动 搜索 选择 成员 无法 添加 好友 群聊 这一 限制 创建 群聊 无法 方便 好友 包括 进来 软件 实用性</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000009447</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>该软件界面中，“最近联系”部分的用户和群组无法进行删除操作。用户尝试点击删除按钮时，系统没有响应，且没有任何提示或错误信息显示。这可能导致用户无法管理他们的联系人列表，从而影响软件的整体用户体验。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>界面 最近 联系 部分 群组 无法 进行 删除 点击 删除 按钮 系统 没有响应 没有 提示 错误信息 无法 管理 联系人 列表 软件 整体</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000007936</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>在朋友-更多入口下发起群聊时，应该添加一个新功能，可以把之前互动过的非好友杰迷也出现在最近联系人，可以通过此处添加联系人，添加一个新功能如“我的活跃记录”里面就有互动过的杰迷联系人</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>朋友 - 更 入口 发起 群聊 应该 添加 新 之前 互动 非 好友 杰迷 出现 最近 联系人 添加 联系人 添加 新 活跃 记录 里面 互动 杰迷 联系人</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008069</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>正常登陆软件点击创建群组后，进入选择联系人界面，通过搜索（放大镜图标）添加联系人时，点击确定后群名称对话框内汉字出现短暂性重影（2秒左右）。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>正常 登陆 软件 点击 创建 群组 进入 选择 联系人 界面 搜索 放大镜 图标 添加 联系人 点击 确定 后群 名称 对话框 汉字 出现 短暂性 重影 秒左右</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000009659</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>在创建群聊并选择好友时，当点击某个好友的头像进行操作时，该头像图片出现了闪烁的现象。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>创建 群聊 选择 好友 点击 好友 头像 进行 头像图片 出现 闪烁 现象</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000008591</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>好友页面上方第一个按钮无任何功能</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>好友 页面 上方 第一个 按钮</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009092</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>在添加好友功能中，当用户尝试添加已存在于其联系人列表中的好友时，系统未能成功执行此操作。相反，它显示了一个错误提示，表明添加过程出现了问题。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>添加 好友 添加 联系人 列表 好友 系统 未能 成功 执行 相反 错误 提示 表明 添加 过程 出现</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000009885</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>添加群聊时 搜索联系人只能通过名称，联系人只以名称存在，易出现搞错联系人的情况。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>添加 群聊   搜索 联系人 只能 名称 联系人 只以 名称 易 出现 搞错 联系人 情况</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000007877</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>该软件的功能设计存在明显的缺陷。无论用户从哪个入口点击发起群聊，都必须邀请好友才能成功建立群聊。若用户没有好友，则无法使用此功能，这限制了用户的使用体验。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>功能设计 明显 缺陷 入口 点击 发起 群聊 必须 邀请 好友 成功 建立 群聊 没有 好友 无法 限制</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008062</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件功能异常的问题。在用户通过朋友页面右上角发起群聊后，当尝试搜索好友并输入关键字来显示好友列表时，即使网络断开并且清空了搜索框，再次输入相同的关键字，软件仍然没有提示网络断开，并且能够正确显示之前出现的好友列表。这可能表明软件在处理网络连接状态的检测或存储方面存在错误，导致它未能正确地响应网络断开的情况。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>软件 异常 朋友 页面 右上角 发起 群聊 搜索 好友 输入 关键字 好友 列表 网络 断开 清空 搜索 框 再次 输入 相同 关键字 软件 仍然 没有 提示 网络 断开 能够 正确 之前 出现 好友 列表 表明 软件 处理 网络连接 状态 检测 存储 方面 错误 未能 正确 响应 网络 断开 情况</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008241</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>该软件在用户从群组页面右上角发起群聊并输入搜索好友关键字后，当网络断开再重新输入相同的关键字时，没有提示网络已断开的信息。反而直接显示了之前的好友列表，这可能导致用户误以为他们的网络连接仍然正常，从而可能进行不必要的操作或误解软件的功能。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>群组 页面 右上角 发起 群聊 输入 搜索 好友 关键字 网络 断开 重新 输入 相同 关键字 没有 提示 网络 断开 信息 之前 好友 列表 误以为 网络连接 仍然 正常 进行 不必要 误解 软件</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000009869</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>该软件界面显示，用户无法直接添加自己的好友，只能通过搜索功能来查找并添加。在尝试直接添加自己为好友时，没有相应的选项或按钮进行操作，导致此功能无法正常使用。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>界面显示 无法 添加 好友 只能 搜索 查找 添加 添加 好友 没有 相应 选项 按钮 进行 无法 正常</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008131</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>在新建群组并尝试添加联系人的过程中，当我们点击“添加组员”右侧的选择框时，底部选择栏中被选联系人的头像会闪烁显示为其他初始的照片。这导致用户无法准确地看到他们正在选择的联系人，可能会引起混淆或误操作。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>新建 群组 添加 联系人 过程 点击 添加 组员 右侧 选择 框时 底部 选择 栏中 选 联系人 头像 闪烁 初始 照片 无法 准确 看到 正在 选择 联系人 引起 混淆 误操作</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000009031</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>在创建群组并试图添加联系人时，系统错误地显示了其他未加为好友的用户作为搜索结果。这可能意味着搜索功能存在漏洞，使得非好友用户的信息被错误地展示出来，可能导致隐私泄露或误导用户。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>创建 群组 试图 添加 联系人 系统 错误 未 加为好友 搜索 意味着 搜索 漏洞 非 好友 信息 错误 展示 隐私 泄露 误导</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009078</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>当用户在“发起群聊”功能中选择了几个联系人后，试图删除搜索条件时，所有已选的联系人都会突然消失。这一现象不仅表明软件中存在明显的功能性缺陷，而且对用户的体验造成了负面影响，可能导致用户对应用的整体满意度下降。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>发起 群聊 选择 几个 联系人 试图 删除 搜索 已选 联系人 突然 消失 这一 现象 表明 软件 明显 功能性 缺陷 造成 负面影响 应用 整体 满意度 下降</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000007944</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>创建群后，无法邀请未聊过天的好友。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>创建 群后 无法 邀请 未 聊过 天 好友</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000008157</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>无法邀请未聊天的好友加入群</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>无法 邀请 未 聊天 好友 加入 群</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000008262</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>在软件的好友添加功能中，当用户成功添加一个好友后，进入与该好友的聊天页面时出现了一个显示错误。具体来说，聊天界面上展示的好友昵称与其实际设置或显示的昵称不匹配。这可能导致用户无法正确识别正在与之交谈的好友，从而产生沟通上的混淆和不便。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>软件 好友 添加 成功 添加 好友 进入 好友 聊天 页面 出现 错误 具体来说 聊天 界面 展示 好友 昵称 设置 昵称 匹配 无法 正确 识别 正在 交谈 好友 产生 沟通 混淆 不便</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000008414</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>新建群组，添加群成员时，从上方搜索框搜索出XW牛仔很忙，点击添加，添加成功，返回添加群组之前的最近联系人界面，XW牛仔很忙显示并未添加，其实是同一个人，但是显示有错</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>新建 群组 添加 群 成员 上方 搜索 框 搜索 出 XW 牛仔 忙 点击 添加 添加 成功 返回 添加 群组 之前 最近 联系人 界面 XW 牛仔 忙 并未 添加 其实 同一个 错</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008594</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>操作人员是非群主，在群聊页面，点击群组设置标志，页面转到群组设置页面，点击添加新成员，页面转到添加成员页面，有最近联系人列表，点击要拉进群的联系人，不需该联系人同意，直接加入群（实际：被拉进群的联系人应该有同意不同意的权限）</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>人员 是非 群主 群聊 页面 点击 群组 设置 标志 页面 转 群组 设置 页面 点击 添加 新 成员 页面 转 添加 成员 页面 最近 联系人 列表 点击 要拉进 群 联系人 需该 联系人 同意 加入 群 拉 进群 联系人 应该 同意 同意 权限</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008955</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>在朋友页面中选择联系人后，进入聊天设置页面进行操作。尝试删除一个好友并返回到朋友页面时，发现之前已删除的好友仍然显示在最近联系人列表中，这导致了数据不一致的问题。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>朋友 页面 选择 联系人 进入 聊天 设置 页面 进行 删除 好友 返回 朋友 页面 发现 之前 删除 好友 仍然 最近 联系人 列表 数据 一致</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000009153</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>删除好友后，用户尝试通过多种方法添加该好友时均遭遇了重复提示“好友已存在”的问题。无论是在“最近联系人”列表中、进入该好友的主页点击“添加好友”按钮，还是通过朋友页面进行搜索添加，系统均一致反馈“请求失败：请求的好友已在列表中”。这种错误反馈误导了用户，使他们无法重新添加已被删除的好友，这可能暗示了软件中存在某种逻辑错误或功能缺陷，导致系统误判或无法正确处理用户的添加好友请求。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>删除 好友 多种 方法 添加 好友 时均 遭遇 重复 提示 好友 无论是 最近 联系人 列表 进入 好友 主页 点击 添加 好友 按钮 朋友 页面 进行 搜索 添加 系统 均 一致 反馈 请求 失败 请求 好友 列表 错误 反馈 误导 无法 重新 添加 删除 好友 暗示 软件 某种 逻辑 错误 缺陷 导致系统 误判 无法 正确处理 添加 好友 请求</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008618</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该功能性错误表现在新建群并添加成员的流程中。在尝试搜索并添加应用程序中的人员时，系统无法正确识别和显示应添加的好友人员。这可能意味着搜索功能出现了故障，导致无法正确索引或检索到预期的用户列表，从而影响了群组管理的正常流程。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>功能性 错误 表现 新建 群 添加 成员 搜索 添加 应用程序 人员 系统 无法 正确 识别 应 添加 好友 人员 意味着 搜索 出现 故障 无法 正确 索引 检索 预期 列表 群组 管理 正常</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008138</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>在软件界面中，用户试图添加群聊时，系统只展示了最近联系人的列表，而没有提供任何其他选项或功能来创建或选择群聊成员。这导致用户无法正常地添加群聊成员，从而影响了软件的主要功能。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>软件 界面 试图 添加 群聊 系统 展示 最近 联系人 列表 没有 提供 选项 创建 选择 群聊 成员 无法 正常 添加 群聊 成员 软件</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000008542</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>进入后点击创建，查找要添加的好友，但并没有显示你的好友列表</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>进入 点击 创建 查找 添加 好友 没有 好友 列表</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008391</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>在群聊的添加成员功能中，当尝试通过搜索用户名来添加用户时，出现了一个未加好友的人在选择栏中。这可能表明系统错误地显示了用户的社交状态，或者是一个界面显示问题。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>群聊 添加 成员 搜索 用户名 添加 出现 未 加 好友 选择 栏中 表明 系统 错误 社交 状态 界面显示</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000008168</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>在软件的“朋友”页面，用户点击了右上角的“发起群聊”按钮，并被要求选择至少一个好友以开始创建群聊。然而，当用户选择了至少一个好友并点击“确定”后，界面并没有如预期那样跳转到新建群的设置页面，而是停留在了当前页面，导致用户无法进行下一步操作。同时，尝试在群组页面执行相同的操作也遇到了相同的问题。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>软件 朋友 页面 点击 右上角 发起 群聊 按钮 要求 选择 至少 好友 创建 群聊 选择 至少 好友 点击 确定 界面 没有 预期 跳转 新建 群 设置 页面 停留 当前 页面 无法 进行 一步 群组 页面 执行 相同 遇到 相同</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000008154</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该应用程序在创建群聊时仅显示了最近联系人，而没有显示全部的联系人列表。这意味着用户无法从他们的联系人中选择除最近联系人以外的其他联系人来创建群聊。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>应用程序 创建 群聊 时仅 最近 联系人 没有 联系人 列表 意味着 无法 联系人 选择 最近 联系人 以外 联系人 创建 群聊</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009216</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>在发起群聊后，用户界面中添加成员的部分出现了一个bug。当用户尝试多次点击相同的联系人以添加到群聊时，该联系人的头像会反复闪烁，而不是稳定显示。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>发起 群聊 用户界面 添加 成员 部分 出现 多次 点击 相同 联系人 添加 群聊 联系人 头像 反复 闪烁 稳定</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000008934</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>在这张图片中，显示了一个手机界面的截图。在屏幕的顶部，我们可以看到网络信号、数据传输速度和电池电量等信息。中间的部分展示了一个群聊通知，其中提到了某个联系人被邀请加入了群聊，但这个动作似乎没有经过该联系人的同意或允许。这可能暗示了软件中的一个功能缺陷或者操作上的问题，即用户在未经授权的情况下就能将联系人拉入群组。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>图片 手机 界面 截图 屏幕 顶部 看到 网络 信号 数据 传输速度 电池电量 信息 中间 部分 展示 群聊 通知 提到 联系人 邀请 加入 群聊 动作 没有 联系人 同意 允许 暗示 软件 缺陷 未经 授权 情况 联系人 拉 入 群组</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000008551</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>这个软件中存在一个bug。具体表现为，用户可以在群聊中与搜索到的非好友用户进行聊天，并且无需将对方加为好友即可将其拉入群聊。此外，群聊的其他成员无法确认该用户的好友关系，这可能导致信息不对称或误导。例如，“东大街”并未与用户建立好友关系，但在搜索后可以直接发送消息。这种设计可能会造成隐私和信息安全的风险。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>软件 具体表现 群聊 搜索 非 好友 进行 聊天 无需 加为好友 即可 其拉入 群聊 群聊 成员 无法 确认 好友 关系 信息 对称 误导 东大街 并未 建立 好友 关系 搜索 发送 消息 设计 造成 隐私 信息安全 风险</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008412</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>这个bug是在群聊中添加成员的功能出现了异常。在正常情况下，群聊中的成员应该是好友列表中的用户，但现在的问题是，不仅好友列表中的用户可以被添加，任何通过搜索功能找到的用户也可以被随意添加到群聊中，而不需要对方的同意。这违反了正常的社交软件的使用逻辑和隐私保护原则，可能会导致用户信息被滥用。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>群聊 添加 成员 出现 异常 正常 情况 群聊 成员 应该 好友 列表 现在 好友 列表 添加 搜索 找到 随意 添加 群聊 同意 违反 正常 社交 软件 逻辑 隐私 保护 原则 信息 滥用</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009437</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>这是一个显示好友搜索功能的界面。用户在发起群聊后尝试搜索，但实际结果显示的是与关键字相关的用户，而不是用户的好友列表。预期结果是用户的好友应该被优先展示，其他结果则根据相关性排列。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>好友 搜索 界面 发起 群聊 搜索 结果显示 关键字 相关 好友 列表 预期 好友 应该 优先 展示 相关性 排列</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>10010000008500</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>【预置条件】
 用户已登录
@@ -1095,7 +1457,7 @@
 添加成功，但每次选中或取消选中时已选成员头像会闪动</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve">
  登录 
@@ -1108,885 +1470,1353 @@
  添加 成功 每次 选中 取消 选中 已选 成员 头像 闪动</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>10010000009037</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>该软件界面在好友消息助手中存在显示错误。当用户被添加为好友时，系统没有正确显示用户的选择结果，无论用户是同意还是拒绝，界面都显示“对方请求加您为好友”，这与实际的用户操作不符。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>界面 好友 消息 助手 错误 添 加为好友 系统 没有 正确 选择 同意 拒绝 界面 请求 加 好友 不符</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000008649</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>该软件在联系人搜索功能中存在明显的显示和逻辑错误。首先，当用户仅输入好友用户名的第一个字符时，搜索结果并未优先展示已添加的好友，这与预期的用户交互不符。其次，搜索结果在区分已添加好友和陌生人方面表现得不够明显，这可能导致用户难以快速找到所需的联系人。最后，搜索结果还展示了具有相同用户名的其他用户，这不仅增加了用户的混淆，而且可能影响用户对软件的信任度。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>联系人 搜索 明显 逻辑 错误 仅 输入 好友 用户名 第一个 字符 搜索 并未 优先 展示 添加 好友 预期 交互 不符 搜索 区分 添加 好友 陌生人 方面 表现 不够 明显 难以 快速 找到 需 联系人 最后 搜索 展示 具有 相同 用户名 增加 混淆 软件 信任度</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000009399</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>该软件在发起群聊功能上存在缺陷，用户无法选择其好友作为群聊成员，只能选择最近联系人。此限制可能导致用户无法创建包含特定好友的群聊，从而降低了应用程序的实用性和用户满意度。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>发起 群聊 缺陷 无法 选择 好友 群聊 成员 只能 选择 最近 联系人 限制 无法 创建 包含 特定 好友 群聊 降低 应用程序 实用性 满意度</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000009118</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>这个bug描述的问题是：在创建群聊的过程中，当选择的成员包括陌生人时，系统应该不允许创建成功。然而，当前系统中，即使选择了陌生人作为成员，仍然可以成功地创建群聊。此外，在尝试加入不是好友的用户到新创建的群聊时，系统没有进行相应的身份验证或提示，导致非好友用户可以轻易地加入到群聊中。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>创建 群聊 过程 选择 成员 包括 陌生人 系统 应该 允许 创建 成功 当前 系统 选择 陌生人 成员 仍然 成功 创建 群聊 加入 好友 新创建 群聊 系统 没有 进行 相应 身份验证 提示 非 好友 轻易 加入 群聊</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009184</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>在发起群聊时，当用户尝试通过关键字搜索并选择好友加入群聊时，系统错误地显示了与输入关键字不相关的陌生人列表。这可能导致用户无法找到他们想要添加的真正联系人，从而影响群聊的创建和功能。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>发起 群聊 关键字 搜索 选择 好友 加入 群聊 系统 错误 输入 关键字 相关 陌生人 列表 无法 找到 想要 添加 真正 联系人 群聊 创建</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000008713</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>在群聊界面中，添加好友的功能似乎出现了问题。用户尝试添加其他好友到群聊时，系统未能正确响应或显示相关操作。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>群聊 界面 添加 好友 出现 添加 好友 群聊 系统 未能 正确 响应 相关</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000008917</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>问题描述：在发起群聊时，当尝试添加成员并选择要添加的成员后，用户无法通过输入法的删除键来清除已选择的成员名单。唯一可用的方法是点击勾选框旁的取消按钮以取消选择。这不符合大多数人的操作习惯，因为删除键通常用于快速和方便地删除不需要的内容。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>发起 群聊 添加 成员 选择 添加 成员 无法 输入法 删除 键来 清除 选择 成员名单 唯一 可用 方法 点击 勾选框 旁 取消 按钮 取消 选择 符合 大多数 习惯 删除 键 通常 用于 快速 方便 删除 内容</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000010007</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>问题描述：在好友选择功能中，用户在选择好友时没有上限的提示，导致用户无法得知他们已经选择了多少次好友。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>好友 选择 选择 好友 没有 上限 提示 无法 得知 选择 次 好友</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000009456</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>当创建群聊时，已经在其他群组中聊过天，但是在添加成员界面中，最近联系人没有显示这个群。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>创建 群聊 群组 聊过 天 添加 成员 界面 最近 联系人 没有 群</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000009077</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>在建立群聊功能中，用户只能通过添加好友来创建群聊，这限制了非好友之间的快速群组建立。此外，当多人处于同一位置时，若想建立群聊，还需手动逐个添加成员，这一过程繁琐且耗时。建议改进此功能，允许面对面建群，以便于用户在需要时能够更快捷地创建群聊。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>建立 群聊 只能 添加 好友 创建 群聊 限制 非 好友 之间 快速 群组 建立 当多人 处于 同一 位置 若想 建立 群聊 需 手动 逐个 添加 成员 这一 过程 繁琐 耗时 建议 改进 允许 面对面 建群 能够 更 快捷 创建 群聊</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000009103</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>在联系人中，没有修改备注这一功能，不能清楚的显示自己好友的名称，自己也不能修改好友在自己联系人列表中的称呼</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>联系人 没有 修改 备注 这一 不能 清楚 好友 名称 不能 修改 好友 联系人 列表 称呼</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000009086</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该软件在创建群组并添加好友时，没有提供全选功能。用户需要手动选择每一个要添加的好友，这个过程既耗时又繁琐。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>创建 群组 添加 好友 没有 提供 全选 手动 选择 添加 好友 过程 耗时 繁琐</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000009218</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>在创建群聊时，用户可以选择添加自己的好友加入群，也可以添加陌生人加入群，并且这种添加不需要经过被添加人的同意，即用户可以随意添加任何人进入一个群，这样会导致在使用该软件时，在毫无察觉的情况下被拉入自己并不想加入的群里面，被迫接受该群发送的消息或是垃圾广告，直到退出该群，极大的降低了用户体验。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>创建 群聊 选择 添加 好友 加入 群 添加 陌生人 加入 群 添加 添加 同意 随意 添加 任何人 进入 群 毫无 察觉 情况 拉入 不想 加入 群 里面 被迫 接受 该群 发送 消息 垃圾 广告 退出 该群 极大 降低</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009158</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>在聊天界面的右上角，当用户尝试发起群聊并点击“添加最近联系人”时，系统要求至少选择一个联系人才能继续操作。然而，当前界面显示有一个错误，即用户无法仅通过点击一个人来创建群聊，必须选择至少一个人才能点击“确定”按钮进行下一步操作。这个设计似乎与预期的用户交互不符，可能导致用户在尝试创建群聊时遇到困难。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>聊天 界面 右上角 发起 群聊 点击 添加 最近 联系人 系统 要求 至少 选择 联系人 继续 当前 界面显示 错误 无法 仅 点击 人来 创建 群聊 必须 选择 至少 人才 点击 确定 按钮 进行 一步 设计 预期 交互 不符 创建 群聊 遇到困难</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000009209</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>群不设置权限时，群邀请好友，群成员好友或陌生人，都不能拒绝入群，只能被邀请后就自动入群。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>群 设置 权限 群 邀请 好友 群 成员 好友 陌生人 不能 拒绝 入群 只能 邀请 自动 入群</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000009421</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>在聊天页面点击搜索（放大镜标志），搜索好友名称，结果不能注明已经添加过的好友和陌生人，且没有优先顺序。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>聊天 页面 点击 搜索 放大镜 标志 搜索 好友 名称 不能 注明 添加 好友 陌生人 没有 优先 顺序</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000009364</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>发起群聊的时候，邀请好友进群并不需要好友的同意，好友就已经进去群聊了</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>发起 群聊 邀请 好友 进群 并不需要 好友 同意 好友 进去 群聊</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009532</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，用户在尝试通过贴吧添加好友时遇到了问题。当用户输入其他用户的帐号时，系统无法完成添加好友的操作，并且无法在好友列表中找到已输入的帐号信息。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>贴 添加 好友 遇到 输入 帐号 系统 无法 完成 添加 好友 无法 好友 列表 找到 输入 帐号 信息</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000009584</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>该软件界面在“添加好友”功能中存在一个显示问题。用户在尝试修改已添加好友的备注时，发现无法进行此操作。这意味着用户无法更新或更改他们已添加联系人的备注信息，这可能会影响用户管理和组织他们的联系人列表。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>界面 添加 好友 修改 添加 好友 备注 发现 无法 进行 意味着 无法 更新 更改 添加 联系人 备注 信息 管理 组织 联系人 列表</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>10010000008117</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该界面显示了一个群聊创建过程，其中用户可以选择特定的联系人并设置权限。然而，在尝试添加一个用户到群聊时，界面似乎出现了问题，因为“确定”按钮被禁用了。这可能表明系统无法正确地处理用户的选择或权限设置，导致创建群聊的过程无法完成。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>界面显示 群聊 创建 过程 选择 特定 联系人 设置 权限 添加 群聊 界面 出现 确定 按钮 禁用 表明 系统 无法 正确 处理 选择 权限 设置 创建 群聊 过程 无法 完成</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008539</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>在群设置中，当选择“允许任何人加入该群”时，被邀请的好友无法进行拒绝操作。无论是否认识被邀请的好友，他们都会被直接添加进群，且没有拒绝或身份识别的选项。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>群 设置 选择 允许 任何人 加入 该群 邀请 好友 无法 进行 拒绝 是否 认识 邀请 好友 添加 进群 没有 拒绝 身份 识别 选项</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009634</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>在好友更改用户名后，好友列表不自动刷新</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>好友 更改 用户名 好友 列表 自动 刷新</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>10010000009200</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>添加好友时，点击联系人加入群组，每点击一个人，整个列表就会重新刷新一遍。影响性能，并且点多了就会先出现默认头像图片，有时候间隔挺久才出现头像，影响用户体验。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>添加 好友 点击 联系人 加入 群组 点击 整个 列表 重新 刷新 一遍 性能 点多 先 出现 默认 头像图片 有时候 间隔 挺久 出现 头像</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000008090</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>步骤2邀请好友入群的过程中，在已选中一个好友的情况下，选择第二个好友时，一个被选中的好友的头像会闪动，，在已选中第一个好友的情况下取消选择该好友，好友的头像会闪动。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>邀请 好友 入群 过程 选中 好友 情况 选择 第二个 好友 选中 好友 头像 闪动 选中 第一个 好友 情况 取消 选择 好友 好友 头像 闪动</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008173</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>点击群组，选择右上角更多发起群聊，选择一名好友，并建群，输入群名并选择入群方式，建完群，到“我的所有群”里查看刚建的群，等了5秒才出现刚刚的群。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>点击 群组 选择 右上角 更 发起 群聊 选择 一名 好友 并建 群 输入 群名 选择 入群 方式 建完群 群 里 查看 刚建 群 秒 出现 刚刚 群</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009254</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>该软件界面中，当用户勾选“最近联系人”中的好友后，在尝试取消勾选时，界面元素出现了闪烁现象。这种闪烁可能是由于某种动画效果或响应速度问题导致的。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>界面 勾选 最近 联系人 好友 取消 勾选时 界面 元素 出现 闪烁 现象 闪烁 某种 动画 效果 响应速度</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000008795</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>该界面在用户登录后，尝试打开聊天功能并选择发起群聊时，存在一个显示问题。即使用户的联系人没有被添加为好友，用户仍然可以通过点击右上角的“发起群聊”按钮向这些最近联系人发起群聊。这可能违反了软件的正常操作流程或逻辑，导致用户在使用过程中可能会遇到困惑或误操作。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>界面 登录 打开 聊天 选择 发起 群聊 联系人 没有 添 加为好友 仍然 点击 右上角 发起 群聊 按钮 最近 联系人 发起 群聊 违反 软件 正常 逻辑 过程 遇到 困惑 误操作</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009341</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>问题描述：在测试中，当尝试将好友加入群组时，没有执行预期的操作流程。预期的步骤是点击添加群成员后，需要好友同意才能加入。但是，实际结果中，好友被直接拉入群中，而没有经过确认过程。这可能导致了未授权访问的问题，并可能违反了隐私和安全政策。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>好友 加入 群组 没有 执行 预期 预期 点击 添加 群 成员 好友 同意 加入 好友 拉入 群中 没有 确认 过程 未 授权 访问 违反 隐私 安全 政策</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009788</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>不能正常添加好友，也不能拒绝好友请求！用户极为不满意！</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>不能 正常 添加 好友 不能 拒绝 好友 请求 极为 满意</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000009419</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>无论是在群组界面还是好友界面，新建群组，添加成员时最近联系人的头像以及底部被选栏头像，在选择时总是频繁闪烁。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>无论是 群组 界面 好友 界面 新建 群组 添加 成员 最近 联系人 头像 底部 选栏 头像 选择 总是 频繁 闪烁</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>10010000007991</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>在软件界面的好友添加部分，用户在输入验证信息时，文本区域出现了重叠现象。具体地，当用户输入验证信息后，下方的按钮和提示文字似乎被上方的文本覆盖，导致用户无法清晰地看到所有必要的信息。这种设计缺陷可能会影响用户体验，使得用户难以正确地完成添加好友的操作。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>软件 界面 好友 添加 部分 输入 验证 信息 文本 区域 出现 重叠 现象 具体 输入 验证 信息 下方 按钮 提示 文字 上方 文本 覆盖 无法 清晰 看到 必要 信息 设计 缺陷 难以 正确 完成 添加 好友</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000008311</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>根据您提供的软件测试报告分析，问题描述如下：
 在尝试添加群组人员时，用户遇到了一个错误。尽管显示了“添加好友失败”的错误信息，但是返回界面后系统却意外地跳转到了输入法界面，这导致了用户体验的中断和不便。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>提供 软件测试 报告 分析 
  添加 群组 人员 遇到 错误 添加 好友 失败 错误信息 返回 界面 系统 意外 跳转 输入法 界面 中断 不便</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000009476</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>该软件的最近联系人列表中，群组信息被错误地显示为联系人。此外，页面布局似乎没有考虑到易用性，导致用户界面的混乱和不直观。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>最近 联系人 列表 群组 信息 错误 联系人 页面 布局 没有 考虑 易用性 用户界面 混乱 直观</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000008726</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>这个软件界面在添加联系人时存在显示问题。当用户尝试添加新的联系人到已满的头像框中时，尽管可以继续添加，但头像框并没有像预期的那样自动移动以容纳新的联系人。相反，头像框保持固定位置，导致用户无法看到新添加的联系人。这个问题可能会影响到用户的使用体验，特别是当他们试图管理或查看大量的联系人信息时。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>软件 界面 添加 联系人 添加 新 联系人 满 头 像框 继续 添加 但头 像框 没有 预期 自动 移动 容纳 新 联系人 相反 头 像框 保持 固定 位置 无法 看到 新 添加 联系人 特别 试图 管理 查看 大量 联系人 信息</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000009841</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>该软件在用户创建群组并尝试至少邀请一位好友时，显示的界面并不是用户期望的好友列表。相反，它展示的是最近联系人的列表，这导致用户需要通过旁边的搜索功能来查找并邀请他们的朋友，从而降低了用户体验。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>创建 群组 至少 邀请 一位 好友 界面 期望 好友 列表 相反 展示 最近 联系人 列表 旁边 搜索 查找 邀请 朋友 降低</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>10010000007642</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>该手机应用界面显示了“最近联系人”列表为空的问题。用户在尝试对名为“换日线”的用户评论后，期望这个用户能出现在最近联系人列表中以便快速@，但列表却为空。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>手机 应用 界面显示 最近 联系人 列表 为空 名为 换日线 评论 期望 出现 最近 联系人 列表 快速 @ 列表 空</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000008636</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>在这款手机应用中，好友分类功能似乎存在缺陷，导致用户无法根据预设的类别对联系人进行有效管理。此外，该应用也缺少备注好友信息的功能，这可能会影响用户之间的沟通和互动。这些问题降低了用户体验，可能导致用户对应用的整体满意度下降。</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>这款 手机 应用 好友 分类 缺陷 无法 预设 类别 联系人 进行 有效 管理 应用 缺少 备注 好友 信息 之间 沟通 互动 降低 应用 整体 满意度 下降</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000008679</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>在最近联系人里添加好友时，系统反馈了一个错误信息，提示“添加失败”，原因是“已添加”。这意味着用户尝试添加的好友已经存在于其手机通讯录或被标记为已添加。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>最近 联系人 里 添加 好友 系统 反馈 错误信息 提示 添加 失败 原因 添加 意味着 添加 好友 手机 通讯录 标记 添加</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000008366</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>该软件界面中，“添加好友”的提示弹窗中，用户需要选择的操作有两个选项：“取消”和“同意”，而根据问题描述，正确的操作应该是“确定”。这显示了软件界面与预期功能之间的不一致。</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>界面 添加 好友 提示 弹窗 选择 两个 选项 取消 同意 正确 应该 确定 软件 界面 预期 之间 一致</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000007917</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>该软件在“朋友”页面的群聊发起功能中存在缺陷。用户在点击“更多”后，尽管之前与某些联系人有过互动，但在建立群聊时，只能从已添加的好友列表中选择成员，而不能从最近联系人或活动记录中查找曾经互动过的联系人。这可能导致用户无法方便地找到并添加到群聊中的特定联系人，尤其是那些他们之前已经互动过但尚未添加为好友的用户。这种设计上的局限性可能会影响用户的体验和群聊的效率。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>朋友 页面 群聊 发起 缺陷 点击 更 之前 联系人 有过 互动 建立 群聊 只能 添加 好友 列表 选择 成员 不能 最近 联系人 活动 记录 查找 曾经 互动 联系人 无法 方便 找到 添加 群聊 特定 联系人 尤其 之前 互动 尚未 添 加为好友 设计 局限性 群聊 效率</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000008024</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>正常登陆软件点击创建群组后，进入选择联系人界面，反复选择、取消联系人时，其头像出现不正常频繁性闪烁。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>正常 登陆 软件 点击 创建 群组 进入 选择 联系人 界面 反复 选择 取消 联系人 头像 出现 正常 频繁 性 闪烁</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000008046</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>在群聊界面中，用户的“我的群”和“好友”列表混杂在一起，导致用户难以区分哪些是群聊哪些是个人好友。这种设计上的混淆可能会造成用户的使用困扰，影响用户体验。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>群聊 界面 群 好友 列表 混杂 一起 难以 区分 群聊 个人 好友 设计 混淆 造成 困扰</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000008513</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>在测试过程中，发现当用户在添加群组讨论成员时，尝试快速连续点击邀请最近联系人的方框选取功能，某些联系人的头像会出现闪烁不定的现象。更令人困扰的是，这种闪烁会导致联系人的头像突然更换为另一张图片，而不是用户原本选择的图片。这个现象可能是由于软件界面渲染或图像加载机制的问题导致的，影响了用户体验和操作的连贯性。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>过程 发现 添加 群组 讨论 成员 快速 连续 点击 邀请 最近 联系人 方框 选取 联系人 头像 出现 闪烁不定 现象 更 令人 困扰 闪烁 联系人 头像 突然 更换 一张 图片 原本 选择 图片 现象 软件 界面 渲染 加载 机制 连贯性</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000008068</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>问题描述：
 在联系人列表中，删除的好友信息仍然存在，用户在尝试发送消息给已删除的好友时，系统并未给出任何提示表明该好友已被删除。此外，即使已经将该好友从列表中移除，用户仍可以向其发送信息，这可能导致用户误操作而不知道其实已经失去了与该好友的联系。</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t xml:space="preserve">
  联系人 列表 删除 好友 信息 仍然 发送 消息 删除 好友 系统 并未 给出 提示 表明 好友 删除 好友 列表 移除 发送信息 误操作 知道 其实 失去 好友 联系</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000008278</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>在群聊中选择陌生人后，最近联系人列表没有显示该陌生人。同时，当尝试从下方的待添加用户中点击某人的头像以添加他们时，系统会自动删除该用户而没有任何删除提示。</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>群聊 选择 陌生人 最近 联系人 列表 没有 陌生人 下方 添加 点击 某人 头像 添加 系统 自动 删除 没有 删除 提示</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000007968</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>该软件在新建群聊并选择最近联系人功能时出现bug。当用户试图再次勾选已选中的最近联系人时，之前被选中的联系人头像会闪烁，并且右下方的联系人数量会增加。这个现象表明了在选择联系人过程中，软件界面更新的逻辑存在问题，导致原本正确显示的联系人数量和选中状态发生了不一致的变化，这可能对用户的使用体验造成混淆和困扰。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>新建 群聊 选择 最近 联系人 出现 试图 再次 勾选 选中 最近 联系人 之前 选中 联系 人头像 闪烁 右下方 联系人 数量 增加 现象 表明 选择 联系人 过程 软件 界面 更新 逻辑 原本 正确 联系人 数量 选中 状态 发生 一致 变化 造成 混淆 困扰</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000008023</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>这个问题描述了一个软件界面的Bug。在新建群聊时，当用户尝试取消勾选已选择的最近联系人时，所有已勾选的联系人的头像会闪烁，这与预期结果不符。预期结果是取消勾选后，右下方显示的数量会减少一个，但实际结果是数量减少了一个并且所有之前被选中的联系人的头像都闪烁了。这可能表明软件在处理用户交互时存在某种状态更新或渲染的问题。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>软件 界面 Bug 新建 群聊 取消 勾选 选择 最近 联系人 勾选 联系人 头像 闪烁 预期 不符 预期 取消 勾选后 右下方 数量 减少 数量 减少 之前 选中 联系人 头像 闪烁 表明 软件 处理 交互 某种 状态 更新 渲染</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10010000008479</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>在软件界面中，创建群聊的功能设计存在一个明显的功能性问题。当用户选择添加联系人以创建群聊时，他们无法一次性全选所有联系人，而只能逐一添加每个联系人。这种设计限制了用户的使用效率和便利性，可能会导致操作上的不便。建议开发者对这一功能进行优化，提供一个全选按钮或者批量添加联系人的选项，以提高用户体验。</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>软件 界面 创建 群聊 功能设计 明显 功能性 选择 添加 联系人 创建 群聊 无法 一次性 全选 联系人 只能 逐一 添加 每个 联系人 设计 限制 效率 便利性 不便 建议 开发者 进行 优化 提供 全选 按钮 批量 添加 联系人 选项 提高</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000008155</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>这个软件界面在好友请求通知部分存在设计缺陷。用户收到好友请求时，没有直接的入口去查看对方的详细资料，这给用户带来了不便，因为他们无法确认请求者的身份。此外，这样的设计可能会增加用户误加陌生人的风险。</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>软件 界面 好友 请求 通知 部分 设计 缺陷 收到 好友 请求 没有 入口 查看 详细资料 带来 不便 无法 确认 请求者 身份 设计 增加 误加 陌生人 风险</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000008235</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>在联系人搜索功能中，初始显示的三位联系人并未反映出最佳的匹配排序。点击“查看更多”后，联系人列表的排列顺序并非基于其匹配程度，例如，ZZY虽然是高度相关的联系人，但并未被置于首位。这可能导致用户难以快速找到他们最需要的联系人信息。</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>联系人 搜索 初始 三位 联系人 并未 反映 出 最佳 匹配 排序 点击 查看 更 联系人 列表 排列 顺序 匹配 程度 ZZY 高度 相关 联系人 并未 置于 首位 难以 快速 找到 联系人 信息</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000009244</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>该软件在执行好友拉黑操作后，仍存在一个逻辑错误，导致被拉黑的好友能够被未经其同意的情况下直接拉入群聊中。这一行为违反了用户隐私和权限管理的基本规则，可能会对用户的个人信息安全造成威胁。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>执行 好友 拉黑 逻辑 错误 拉 黑 好友 能够 未经 同意 情况 拉 入 群聊 这一 行为 违反 隐私 权限 管理 基本 规则 个人 信息安全 造成 威胁</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000008816</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>测试功能:添加联系人
 重现步骤:发起群聊，勾选联系人，取消勾选
@@ -1995,7 +2825,7 @@
 预期结果:直接取消选中，页面无其他变化</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>: 添加 联系人 
  重现 : 发起 群聊 勾选 联系人 取消 勾选 
@@ -2004,708 +2834,1072 @@
  预期 : 取消 选中 页面 变化</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000009156</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>当用户试图在一次添加21个联系人时创建群组，系统在用户输入群名称并点击确认后出现错误。这导致用户必须返回到之前的界面重新输入信息，这种反复的操作给用户带来了不便。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>试图 一次 添加 21 联系人 创建 群组 系统 输入 群 名称 点击 确认 出现 错误 必须 返回 之前 界面 重新 输入 信息 反复 带来 不便</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000009734</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>在发起群聊并尝试添加群聊好友时，用户界面存在明显的性能问题。当用户选择要添加到群聊的好友时，已选好友和正在被选中的好友的头像都会发生跳动（加载），这暗示了图像加载速度缓慢。这种跳动现象可能是由于软件内部处理图像加载的速度不够快，或者是由于手机硬件性能的限制导致的。这个问题可能会导致用户的等待时间过长，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>发起 群聊 添加 群聊 好友 用户界面 明显 性能 选择 添加 群聊 好友 已选 好友 正在 选中 好友 头像 发生 跳动 加载 暗示 加载 速度 缓慢 跳动 现象 软件 内部 处理 加载 速度 不够 快 手机 硬件 性能 限制 等待时间 过长</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000008529</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>该软件在用户试图添加好友时，界面出现了一个逻辑错误。用户在选择“同意”或“取消”按钮后，并没有得到预期的操作反馈或者结果，导致用户无法继续进行下一步操作。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>试图 添加 好友 界面 出现 逻辑 错误 选择 同意 取消 按钮 没有 得到 预期 反馈 无法 继续 进行 一步</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000008590</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>在发起群聊时，该功能允许用户邀请非好友加入群聊。然而，这种设计可能导致用户的困扰，因为他们可能不愿意接受不是好友的邀请。这可能会降低用户的使用体验，并导致他们对该应用的信任度下降。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>发起 群聊 允许 邀请 非 好友 加入 群聊 设计 困扰 愿意 接受 好友 邀请 降低 应用 信任度 下降</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10010000008422</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>在新建群聊并添加联系人的过程中，当尝试勾选某个联系人时，其头像会出现短暂的闪烁现象。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>新建 群聊 添加 联系人 过程 勾选 联系人 头像 出现 短暂 闪烁 现象</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000007967</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>该界面在用户试图通过“发起群聊”功能创建群组时存在设计缺陷。当用户的最近联系人列表为空时，界面并未提供除搜索框之外的其他直接添加好友到群聊的方式，导致用户必须手动搜索并添加每一个想要一起聊天的好友。这样的设计不仅增加了用户的使用负担，也降低了应用程序的整体用户体验，使得创建群聊的过程变得相对繁琐和不直观。</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>界面 试图 发起 群聊 创建 群组 设计 缺陷 最近 联系人 列表 空时 界面 并未 提供 搜索 框 之外 添加 好友 群聊 方式 必须 手动 搜索 添加 想要 一起 聊天 好友 设计 增加 负担 降低 应用程序 整体 创建 群聊 过程 变得 相对 繁琐 直观</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000007987</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>该软件界面中，“发起群聊”功能并未提供直接添加自己好友的选项，导致用户在尝试创建群聊时可能会感到不便。这种设计可能增加了用户的操作复杂性，影响了用户体验。</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>界面 发起 群聊 并未 提供 添加 好友 选项 创建 群聊 感到 不便 设计 增加 复杂性</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000008801</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>在发起群聊时，当用户通过搜索选择一大批联系人后，被选中的用户的头像会出现在界面下方。但当用户点击这些头像以尝试取消选中状态时，系统并未提供任何视觉或听觉提示来告知用户这一行为的效果。这种设计导致用户无法直观地理解他们的操作对选中状态的影响，从而降低了整体的用户体验。</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>发起 群聊 搜索 选择 一大批 联系人 选中 头像 出现 界面 下方 点击 头像 取消 选中 状态 系统 并未 提供 视觉 听觉 提示 告知 这一 行为 效果 设计 无法 直观 理解 选中 状态 降低 整体</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000008064</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>在最近联系人列表中，当没有显示任何联系人时，系统并未提供“暂无最近联系人”的提示信息。这可能会给用户带来困惑，因为他们期望在列表为空时得到某种形式的反馈。</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>最近 联系人 列表 没有 联系人 系统 并未 提供 暂无 最近 联系人 提示信息 带来 困惑 期望 列表 空时 得到 某种 形式 反馈</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000009881</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>发起群聊-添加成员页面，断开网络，选中成员，点击确定，仍能进入到创建群组页面。</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>发起 群聊 - 添加 成员 页面 断开 网络 选中 成员 点击 确定 仍能 进入 创建 群组 页面</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000008110</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>该软件界面在添加群成员功能上存在缺陷，导致用户无法全选并邀请好友加入群聊。此问题可能会降低用户的使用体验，因为他们不能一次性地将多个联系人添加到群组中。</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>界面 添加 群 成员 缺陷 无法 全选 邀请 好友 加入 群聊 降低 不能 一次性 多个 联系人 添加 群组</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10010000008002</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>问题描述：在软件中，当用户尝试通过搜索好友来建立群聊时，虽然用户的好友列表被正确地显示出来，但该列表与非好友的部分之间没有明确的视觉区分。具体来说，“流年似水梦归处”这一名称的用户被标记为好友，但在界面上并没有使用标签或其他方式来明确区分她与其他非好友用户。这导致了视觉效果上的不一致和用户体验的不协调。</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>软件 搜索 好友 建立 群聊 好友 列表 正确 列表 与非 好友 部分 之间 没有 明确 视觉 区分 具体来说 流年似水 梦归处 这一 名称 标记 好友 界面 没有 标签 方式 明确 区分 非 好友 视觉效果 一致 协调</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10010000008385</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>该软件的用户界面中，“好友”分组功能似乎出现了故障。用户无法对好友进行分组操作，这可能导致用户无法根据不同的标准或条件对他们的联系人进行分类和组织。此问题可能会影响到用户的通讯录管理效率，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>用户界面 好友 分组 出现 故障 无法 好友 进行 分组 无法 不同 标准 联系人 进行 分类 组织 通讯录 管理效率</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10010000008786</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>在手机的聊天应用中，当收到一个好友请求时，用户点击“同意”后，原本应该可以直接进入与该好友的聊天界面。然而，在这张图片中，尽管用户已经点击了“同意”，但在试图找到并进入与新好友的聊天界面时，却找不到相应的入口。这可能是因为某种软件故障或设计缺陷导致的。</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>手机 聊天 应用 收到 好友 请求 点击 同意 原本 应该 进入 好友 聊天 界面 图片 点击 同意 试图 找到 进入 新 好友 聊天 界面 找 不到 相应 入口 是因为 某种 软件 故障 设计 缺陷</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10010000009854</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>点击创建群聊，下面可勾选最近联系人添加进群聊。当最近联系人消息清空后，不显示最近联系人的信息。新建群，添加成员时，希望增加勾选好友的功能，不用费更多时间再去查找已有好友添加进群聊。</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>点击 创建 群聊 下面 可勾选 最近 联系人 添加 进 群聊 最近 联系人 消息 清空 最近 联系人 信息 新建 群 添加 成员 希望 增加 勾选 好友 用费 更 时间 查找 已有 好友 添加 进 群聊</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10010000008885</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>在联系人列表界面，当最近联系人为空时，系统并未提供预期的提示信息，表明列表已为空。这可能导致用户误解为列表仍在加载中，从而产生混淆和不便。</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>联系人 列表 界面 最近 联系人 空时 系统 并未 提供 预期 提示信息 表明 列表 已为 空 误解 列表 加载 产生 混淆 不便</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10010000009252</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>在软件的好友添加功能中，用户在成功添加好友后，无法为其设置备注姓名。这导致当用户拥有大量好友时，难以区分和记忆每个好友的姓名，从而给用户带来了极大的不便。</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>软件 好友 添加 成功 添加 好友 无法 设置 备注 姓名 拥有 大量 好友 难以 区分 记忆 每个 好友 姓名 带来 极大 不便</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10010000008092</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>该软件在创建群聊的过程中存在逻辑错误。用户在发起群聊时，选择相同的联系人并输入相同的群名进行操作，但系统却错误地允许了两次建群请求，导致同一组联系人被加入了两个不同的群聊。这种情况明显违反了正常的群聊创建规则，给用户带来了困扰和不便，影响了用户体验。</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>创建 群聊 过程 逻辑 错误 发起 群聊 选择 相同 联系人 输入 相同 群名 进行 系统 错误 允许 两次 建群 请求 一组 联系人 加入 两个 不同 群聊 情况 明显 违反 正常 群聊 创建 规则 带来 困扰 不便</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10010000008205</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>该软件的群聊功能在用户选择陌生人后出现了显示问题。最近联系人列表中没有显示相应的人数，这可能导致用户无法准确了解群聊中的人员构成。更为严重的是，当用户点击添加人的头像时，软件会自动删除该用户，并且没有提供任何删除确认或提示信息给用户。这种行为可能会导致误操作，损害用户的隐私和数据安全。</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>群聊 选择 陌生人 出现 最近 联系人 列表 没有 相应 人数 无法 准确 了解 群聊 人员构成 更为严重 点击 添加 头像 软件 自动 删除 没有 提供 删除 确认 提示信息 行为 误操作 损害 隐私 数据安全</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10010000008279</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>在搜索结果中，已添加的人仍然出现，这可能是一个显示错误或系统未能正确更新联系人列表的问题。当用户添加某人为联系人后，系统应该立即从搜索结果中移除该联系人，以确保用户界面的一致性和准确性。</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>搜索 添加 仍然 出现 错误 系统 未能 正确 更新 联系人 列表 添加 某人 联系人 系统 应该 立即 搜索 移除 联系人 确保 用户界面 一致性 准确性</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10010000008362</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>该bug描述为：在添加好友后，用户的名字显示为123。当好友改名为456之后，在用户的好友列表中名字没有更新，仍然显示为123。但在查看好友信息时，其名字却正确地显示为456。</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>添加 好友 名字 123 好友 改名 456 之后 好友 列表 名字 没有 更新 仍然 123 查看 好友 信息 名字 正确 456</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10010000008383</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>该应用程序存在一个软件缺陷，导致用户可以在没有对方接受邀请的情况下将非好友添加到群聊中。此问题可能会对用户的隐私和安全造成潜在风险。</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>应用程序 软件缺陷 没有 接受 邀请 情况 非 好友 添加 群聊 隐私 安全 造成 潜在 风险</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10010000009895</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>创建群时，必须选择一个好友，不然不能创建。</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>创建 群时 必须 选择 好友 不能 创建</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10010000008497</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>该应用程序在收到陌生人的好友请求时，并未提供足够的信息来让用户了解对方的身份。用户无法查看对方的个人资料或获取任何关于他们的背景信息，这限制了用户与新联系人互动的能力，可能导致沟通不畅或误解。</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>应用程序 收到 陌生人 好友 请求 并未 提供 足够 信息 了解 身份 无法 查看 个人资料 获取 背景 信息 限制 新 联系人 互动 能力 沟通 不畅 误解</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10010000008634</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>问题描述：在尝试添加好友时，用户在第一次添加好友后再次尝试添加，系统仍然弹出了确认添加好友的窗口。这可能表明系统的缓存或记忆机制存在问题，导致即使用户已经确认过操作，系统仍旧认为需要再次确认。</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>添加 好友 第一次 添加 好友 再次 添加 系统 仍然 弹出 确认 添加 好友 窗口 表明 系统 缓存 记忆 机制 确认 系统 认为 再次 确认</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10010000008592</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>在创建新群的步骤中，第一步是选择联系人。然而，这个设计没有考虑到新用户可能没有任何联系人的情况。这可能会导致新用户在尝试创建群组时遇到困难，因为他们无法完成第一步。</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>创建 新群 第一步 选择 联系人 设计 没有 考虑 新 没有 联系人 情况 新 创建 群组 遇到困难 无法 完成 第一步</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10010000009544</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>在创建群聊的界面中，当用户选择多个好友并试图滑动到最新选中的好友时，下方的列表并没有如预期那样滑动，而是停留在了之前的好友上。</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>创建 群聊 界面 选择 多个 好友 试图 滑动 最新 选中 好友 下方 列表 没有 预期 滑动 停留 之前 好友</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10010000009374</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>新建群聊无法直接添加好友，只能直接勾选最近联系人和通过用户名搜索后选中</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>新建 群聊 无法 添加 好友 只能 勾选 最近 联系人 用户名 搜索 选中</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10010000008827</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>添加联系人时没有“全选”按钮</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>添加 联系人 没有 全选 按钮</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10010000008887</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>在进入创建群组界面时，用户选中好友后，群名称的显示出现了异常闪烁现象。这种闪烁不仅打断了用户的视觉体验，还可能引起误解或困惑，导致用户对操作流程产生疑问。</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>进入 创建 群组 界面 选中 好友 群 名称 出现 异常 闪烁 现象 闪烁 打断 视觉 引起 误解 困惑 产生 疑问</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10010000008828</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>1.进入朋友界面，点击右上角的更多，选择发起群聊
 2.在最近联系人中选择一位好友，后面的单选框中会打上钩，在点击一下，钩会取消。在点击取消钩的时候，头像会一闪一闪的。</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>. 进入 朋友 界面 点击 右上角 更 选择 发起 群聊 
  . 最近 联系人 选择 一位 好友 后面 单选框 中会 上钩 点击 一下 钩 取消 点击 取消 钩 头像 一闪 一闪</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10010000009173</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>好友，自己群组聊天中的背景图片不能修改。</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>好友 群组 聊天 背景图片 不能 修改</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10010000009590</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>群组和好友列表没有刷新功能</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>群组 好友 列表 没有 刷新</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10010000009025</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>添加群好友时，多次点击同一个好友，好友头像会闪动。</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>添加 群 好友 多次 点击 同一个 好友 好友 头像 闪动</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10010000009573</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>该软件界面中，“添加成员”功能缺乏完整的选择按钮。在用户尝试添加联系人时，必须手动选择一个联系人，然后再选择另一个，这样的操作方式对用户不友好，导致用户体验较差。</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>界面 添加 成员 缺乏 完整 选择 按钮 添加 联系人 必须 手动 选择 联系人 选择 方式 友好 较差</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10010000009094</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>不能修改好友备注，当好友太多的时候，分不清谁是谁，建议添加好友备注。</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>不能 修改 好友 备注 好友 太多 分不清 建议 添加 好友 备注</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10010000009395</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>在软件界面中，当用户尝试继续添加新的联系人时，之前已经添加过的成员名单仍然出现在列表中，导致这些成员信息被重复显示。</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>软件 界面 继续 添加 新 联系人 之前 添加 成员名单 仍然 出现 列表 成员 信息 重复</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10010000009394</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>点击好友头像，进入聊天页面，可无限循环进入好友聊天页面</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>点击 好友 头像 进入 聊天 页面 无限 循环 进入 好友 聊天 页面</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10010000009864</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>在软件的好友管理功能中，用户无法进行分类和备注操作，导致好友管理体验不佳。</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>软件 好友 管理 无法 进行 分类 备注 好友 管理 不佳</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10010000009886</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>问题描述：在尝试将新的联系人添加到最近联系人列表时，系统显示添加失败，错误信息表明该联系人已经存在于列表中。</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>新 联系人 添加 最近 联系人 列表 系统 添加 失败 错误信息 表明 联系人 列表</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10010000009856</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>删除好友后‘，好友仍在列表中</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>删除 好友 ‘ 好友 列表</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
